--- a/import_file/Data Penjualan(new).xlsx
+++ b/import_file/Data Penjualan(new).xlsx
@@ -1,35 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\prediksi\import_file\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView windowWidth="20325" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Data Penjualan Genap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t xml:space="preserve">Tahun </t>
   </si>
   <si>
     <t>Bulan</t>
+  </si>
+  <si>
+    <t>Adv1</t>
+  </si>
+  <si>
+    <t>Adv2</t>
+  </si>
+  <si>
+    <t>Adv3</t>
+  </si>
+  <si>
+    <t>Opt2</t>
+  </si>
+  <si>
+    <t>Opt1</t>
   </si>
   <si>
     <t>Januari</t>
@@ -67,44 +72,372 @@
   <si>
     <t>Desember</t>
   </si>
-  <si>
-    <t>Adv1</t>
-  </si>
-  <si>
-    <t>Adv2</t>
-  </si>
-  <si>
-    <t>Adv3</t>
-  </si>
-  <si>
-    <t>Opt1</t>
-  </si>
-  <si>
-    <t>Opt2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -112,26 +445,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -140,10 +754,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D3DAE3"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="404552"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -178,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,7 +827,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,32 +1002,28 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.2866666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.2866666666667" customWidth="1"/>
+    <col min="3" max="3" width="26.5733333333333" customWidth="1"/>
+    <col min="4" max="4" width="26.8533333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.7133333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,27 +1031,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2007</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -459,12 +1069,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2007</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>47</v>
@@ -482,12 +1092,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2007</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -505,12 +1115,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2007</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>68</v>
@@ -528,12 +1138,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2007</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>47</v>
@@ -551,12 +1161,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2007</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>38</v>
@@ -574,12 +1184,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2007</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -597,12 +1207,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>61</v>
@@ -620,12 +1230,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2007</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>40</v>
@@ -643,12 +1253,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2007</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>55</v>
@@ -666,12 +1276,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2007</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>45</v>
@@ -689,12 +1299,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2007</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>47</v>
@@ -712,12 +1322,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2008</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>37</v>
@@ -735,12 +1345,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2008</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>46</v>
@@ -758,12 +1368,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2008</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>38</v>
@@ -781,12 +1391,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2008</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>53</v>
@@ -804,12 +1414,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>34</v>
@@ -827,12 +1437,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2008</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>32</v>
@@ -850,12 +1460,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2008</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>59</v>
@@ -873,12 +1483,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2008</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>43</v>
@@ -896,12 +1506,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2008</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>30</v>
@@ -919,12 +1529,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2008</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23">
         <v>32</v>
@@ -942,12 +1552,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2008</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C24">
         <v>40</v>
@@ -965,12 +1575,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2008</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>50</v>
@@ -988,12 +1598,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2009</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>60</v>
@@ -1011,12 +1621,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2009</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>37</v>
@@ -1034,12 +1644,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2009</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>45</v>
@@ -1057,12 +1667,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2009</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>46</v>
@@ -1080,12 +1690,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2009</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>57</v>
@@ -1103,12 +1713,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2009</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>43</v>
@@ -1126,12 +1736,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>2009</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>54</v>
@@ -1149,12 +1759,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>2009</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>43</v>
@@ -1172,12 +1782,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>2009</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>47</v>
@@ -1195,12 +1805,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>2009</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>60</v>
@@ -1218,12 +1828,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>2009</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>43</v>
@@ -1241,12 +1851,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>2009</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>32</v>
@@ -1264,12 +1874,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>2010</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>29</v>
@@ -1287,12 +1897,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>2010</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <v>30</v>
@@ -1310,12 +1920,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2010</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>50</v>
@@ -1333,12 +1943,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>2010</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C41">
         <v>60</v>
@@ -1356,12 +1966,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>2010</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>68</v>
@@ -1379,12 +1989,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>2010</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>43</v>
@@ -1402,12 +2012,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>2010</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -1425,12 +2035,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>2010</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>40</v>
@@ -1448,12 +2058,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>2010</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>48</v>
@@ -1471,12 +2081,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>2010</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C47">
         <v>38</v>
@@ -1494,12 +2104,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>2010</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>50</v>
@@ -1517,12 +2127,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>2010</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>45</v>
@@ -1540,12 +2150,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>2011</v>
       </c>
       <c r="B50" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C50">
         <v>53</v>
@@ -1563,12 +2173,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>2011</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>48</v>
@@ -1586,12 +2196,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>2011</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C52">
         <v>56</v>
@@ -1609,12 +2219,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>2011</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C53">
         <v>60</v>
@@ -1632,12 +2242,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>2011</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>68</v>
@@ -1655,12 +2265,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>2011</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>78</v>
@@ -1678,12 +2288,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>2011</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C56">
         <v>86</v>
@@ -1701,12 +2311,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>2011</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>94</v>
@@ -1724,12 +2334,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>2011</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C58">
         <v>84</v>
@@ -1747,12 +2357,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>2011</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C59">
         <v>89</v>
@@ -1770,12 +2380,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>2011</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C60">
         <v>95</v>
@@ -1793,12 +2403,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>2011</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>104</v>
@@ -1816,12 +2426,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2012</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C62">
         <v>91</v>
@@ -1839,12 +2449,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>2012</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C63">
         <v>120</v>
@@ -1862,12 +2472,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>2012</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C64">
         <v>105</v>
@@ -1885,12 +2495,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2012</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>115</v>
@@ -1908,12 +2518,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2012</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C66">
         <v>120</v>
@@ -1931,12 +2541,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>2012</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>101</v>
@@ -1954,12 +2564,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>2012</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>119</v>
@@ -1977,12 +2587,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>2012</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C69">
         <v>130</v>
@@ -2000,12 +2610,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2012</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C70">
         <v>135</v>
@@ -2023,12 +2633,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>2012</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C71">
         <v>145</v>
@@ -2046,12 +2656,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>2012</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C72">
         <v>136</v>
@@ -2069,12 +2679,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>2012</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C73">
         <v>147</v>
@@ -2092,12 +2702,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>2013</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>157</v>
@@ -2115,12 +2725,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>2013</v>
       </c>
       <c r="B75" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>167</v>
@@ -2138,12 +2748,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>2013</v>
       </c>
       <c r="B76" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C76">
         <v>174</v>
@@ -2161,12 +2771,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>2013</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C77">
         <v>162</v>
@@ -2184,12 +2794,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>2013</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -2207,12 +2817,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>2013</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>160</v>
@@ -2230,12 +2840,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>2013</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C80">
         <v>145</v>
@@ -2253,12 +2863,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>2013</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>154</v>
@@ -2276,12 +2886,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>2013</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C82">
         <v>166</v>
@@ -2299,12 +2909,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>2013</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C83">
         <v>143</v>
@@ -2322,12 +2932,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>2013</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C84">
         <v>156</v>
@@ -2345,12 +2955,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>2013</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C85">
         <v>167</v>
@@ -2368,12 +2978,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>2014</v>
       </c>
       <c r="B86" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>156</v>
@@ -2391,12 +3001,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>2014</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C87">
         <v>142</v>
@@ -2414,12 +3024,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>2014</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C88">
         <v>157</v>
@@ -2437,12 +3047,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>2014</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C89">
         <v>143</v>
@@ -2460,12 +3070,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>2014</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>152</v>
@@ -2483,12 +3093,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>2014</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>170</v>
@@ -2506,12 +3116,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>2014</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C92">
         <v>153</v>
@@ -2529,12 +3139,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>2014</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C93">
         <v>142</v>
@@ -2552,12 +3162,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>2014</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C94">
         <v>157</v>
@@ -2575,12 +3185,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>2014</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>132</v>
@@ -2598,12 +3208,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>2014</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C96">
         <v>165</v>
@@ -2621,12 +3231,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>2014</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C97">
         <v>142</v>
@@ -2644,12 +3254,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>2015</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>154</v>
@@ -2667,12 +3277,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>2015</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C99">
         <v>136</v>
@@ -2690,12 +3300,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>2015</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C100">
         <v>126</v>
@@ -2713,12 +3323,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>2015</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C101">
         <v>142</v>
@@ -2736,12 +3346,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>2015</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C102">
         <v>131</v>
@@ -2759,12 +3369,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>2015</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C103">
         <v>148</v>
@@ -2782,12 +3392,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>2015</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C104">
         <v>159</v>
@@ -2805,12 +3415,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>2015</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C105">
         <v>169</v>
@@ -2828,12 +3438,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>2015</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C106">
         <v>178</v>
@@ -2851,12 +3461,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>2015</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C107">
         <v>152</v>
@@ -2874,12 +3484,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>2015</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C108">
         <v>143</v>
@@ -2897,12 +3507,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>2015</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C109">
         <v>150</v>
@@ -2920,12 +3530,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>2016</v>
       </c>
       <c r="B110" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C110">
         <v>158</v>
@@ -2943,12 +3553,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>2016</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C111">
         <v>170</v>
@@ -2966,12 +3576,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>2016</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C112">
         <v>168</v>
@@ -2989,12 +3599,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>2016</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>189</v>
@@ -3012,12 +3622,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>2016</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C114">
         <v>167</v>
@@ -3035,12 +3645,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>2016</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C115">
         <v>176</v>
@@ -3058,12 +3668,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>2016</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C116">
         <v>182</v>
@@ -3081,12 +3691,12 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>2016</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C117">
         <v>191</v>
@@ -3104,12 +3714,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>2016</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C118">
         <v>198</v>
@@ -3127,12 +3737,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>2016</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C119">
         <v>201</v>
@@ -3150,12 +3760,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>2016</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C120">
         <v>192</v>
@@ -3173,12 +3783,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>2016</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C121">
         <v>230</v>
@@ -3197,6 +3807,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>